--- a/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
+++ b/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
@@ -25,22 +25,22 @@
     <t>Turquia</t>
   </si>
   <si>
+    <t>Tailândia</t>
+  </si>
+  <si>
+    <t>Indonésia</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
     <t>Colômbia</t>
   </si>
   <si>
     <t>África do Sul</t>
-  </si>
-  <si>
-    <t>Tailândia</t>
-  </si>
-  <si>
-    <t>Indonésia</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Chile</t>
   </si>
   <si>
     <t>China</t>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>47.49145887445886</v>
+        <v>5.70317613636368</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>26.85462770562768</v>
+        <v>-1.743653409090918</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8.650982683982647</v>
+        <v>-3.520011363636357</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5.816909090909093</v>
+        <v>-9.718647727272739</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.6344588744589</v>
+        <v>-10.58146022727274</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -466,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.411512987012998</v>
+        <v>-21.10568181818184</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -474,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-2.285344155844165</v>
+        <v>-22.05607386363641</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-14.1259632034632</v>
+        <v>-24.46983522727272</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>-16.54153463203465</v>
+        <v>-34.98314772727272</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-34.05800649350647</v>
+        <v>-55.51555113636357</v>
       </c>
     </row>
   </sheetData>

--- a/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
+++ b/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
@@ -22,28 +22,28 @@
     <t>CDS Variation (bps)</t>
   </si>
   <si>
+    <t>Indonésia</t>
+  </si>
+  <si>
+    <t>Tailândia</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
     <t>Turquia</t>
   </si>
   <si>
-    <t>Tailândia</t>
-  </si>
-  <si>
-    <t>Indonésia</t>
-  </si>
-  <si>
-    <t>Chile</t>
+    <t>Colômbia</t>
   </si>
   <si>
     <t>Peru</t>
   </si>
   <si>
-    <t>Colômbia</t>
+    <t>China</t>
   </si>
   <si>
     <t>África do Sul</t>
-  </si>
-  <si>
-    <t>China</t>
   </si>
   <si>
     <t>México</t>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.70317613636368</v>
+        <v>1.624863636363656</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-1.743653409090918</v>
+        <v>1.164742424242419</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-3.520011363636357</v>
+        <v>-2.324939393939395</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-9.718647727272739</v>
+        <v>-8.595303030303</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-10.58146022727274</v>
+        <v>-9.52151515151516</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -466,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-21.10568181818184</v>
+        <v>-12.5334393939394</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -474,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-22.05607386363641</v>
+        <v>-21.66093939393939</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-24.46983522727272</v>
+        <v>-31.12880303030306</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>-34.98314772727272</v>
+        <v>-31.23710606060607</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-55.51555113636357</v>
+        <v>-47.03253030303026</v>
       </c>
     </row>
   </sheetData>

--- a/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
+++ b/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>CDS Variation (bps)</t>
-  </si>
-  <si>
-    <t>Indonésia</t>
-  </si>
-  <si>
-    <t>Tailândia</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Turquia</t>
-  </si>
-  <si>
-    <t>Colômbia</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>África do Sul</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,102 +420,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CDS Variation (bps)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Indonésia</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1.624863636363656</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tailândia</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1.164742424242419</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-2.324939393939395</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Turquia</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-8.595303030303</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Colômbia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-9.52151515151516</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-12.5334393939394</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-21.66093939393939</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>África do Sul</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-31.12880303030306</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-31.23710606060607</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>-47.03253030303026</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
+++ b/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>CDS Variation (bps)</t>
+  </si>
+  <si>
+    <t>Indonésia</t>
+  </si>
+  <si>
+    <t>Tailândia</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Turquia</t>
+  </si>
+  <si>
+    <t>Colômbia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>África do Sul</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,132 +406,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CDS Variation (bps)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Indonésia</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1.624863636363656</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tailândia</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>1.164742424242419</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>-2.324939393939395</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Turquia</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>-8.595303030303</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colômbia</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>-9.52151515151516</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>-12.5334393939394</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>-21.66093939393939</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>África do Sul</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>-31.12880303030306</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>México</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>-31.23710606060607</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>-47.03253030303026</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
+++ b/00.data/00.cds/variacao_cds_medio_emergentes.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F3189218\OneDrive - Banco do Brasil S.A\Documentos\Codigos\Mundial\incerteza_risco_mundial\00.data\00.cds\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839489B-F47D-48F9-92B9-DDDFDBD74009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-180" yWindow="-180" windowWidth="19560" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +125,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,6 +211,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,9 +246,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,14 +422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,23 +437,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.624863636363656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.6248636363636559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.164742424242419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.1647424242424189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -445,23 +461,23 @@
         <v>-2.324939393939395</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-8.595303030303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>-8.5953030303030005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-9.52151515151516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-9.5215151515151604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -469,7 +485,7 @@
         <v>-12.5334393939394</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -477,15 +493,15 @@
         <v>-21.66093939393939</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-31.12880303030306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-31.128803030303061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -493,15 +509,24 @@
         <v>-31.23710606060607</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-47.03253030303026</v>
+        <v>-47.032530303030263</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Aptos"&amp;10&amp;K000000 #interna&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{40881dc9-f7f2-41de-a334-ceff3dc15b31}" enabled="1" method="Standard" siteId="{ea0c2907-38d2-4181-8750-b0b190b60443}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>